--- a/medicine/Mort/Cimetière_Saint-Pierre_(Aix-en-Provence)/Cimetière_Saint-Pierre_(Aix-en-Provence).xlsx
+++ b/medicine/Mort/Cimetière_Saint-Pierre_(Aix-en-Provence)/Cimetière_Saint-Pierre_(Aix-en-Provence).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Pierre_(Aix-en-Provence)</t>
+          <t>Cimetière_Saint-Pierre_(Aix-en-Provence)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Saint-Pierre est un cimetière d'Aix-en-Provence ouvert en 1824, situé dans le quartier Saint-Pierre. Un cimetière juif et un cimetière protestant se trouvaient déjà à cet emplacement et ont été intégrés au nouveau cimetière, beaucoup plus vaste. La translation des dépouilles et monuments se trouvant autour des églises d'Aix fut effectuée en 1837[1]. Il est célèbre pour accueillir les tombes de Cézanne, de Darius Milhaud et d'autres artistes de Provence. son entrée principale est située sur sa face Est, rue des Déportés de la Résistance aixoise, et une entrée secondaire se trouve sur sa façade Sud, traverse Saint-Pierre. Là se trouve également l'unique entrée du cimetière juif qui demeure séparé du reste par un mur.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Saint-Pierre est un cimetière d'Aix-en-Provence ouvert en 1824, situé dans le quartier Saint-Pierre. Un cimetière juif et un cimetière protestant se trouvaient déjà à cet emplacement et ont été intégrés au nouveau cimetière, beaucoup plus vaste. La translation des dépouilles et monuments se trouvant autour des églises d'Aix fut effectuée en 1837. Il est célèbre pour accueillir les tombes de Cézanne, de Darius Milhaud et d'autres artistes de Provence. son entrée principale est située sur sa face Est, rue des Déportés de la Résistance aixoise, et une entrée secondaire se trouve sur sa façade Sud, traverse Saint-Pierre. Là se trouve également l'unique entrée du cimetière juif qui demeure séparé du reste par un mur.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Pierre_(Aix-en-Provence)</t>
+          <t>Cimetière_Saint-Pierre_(Aix-en-Provence)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Certaines tombes déplacées en 1837 sont anciennes. Le cimetière juif comporte des pierres rapportés de cimetières d'Afrique du Nord. 
 L'architecture de certaines tombes est intéressante, depuis celle de la famille L. Louis Gautier qui fait penser à une petite basilique orthodoxe jusqu'à celle du sculpteur Jean Amado qui comporte une œuvre originale, sorte de gros galet dans lequel apparaît une croix, en passant par de nombreux monuments en faux gothique ou de type grotte, en pierre meulière, voire imitation rondins, en ciment. La tombe de Sextius Alexandre de Miollis, dignitaire du Premier Empire né à Aix, occupe une position stratégique au centre du cimetière.
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Pierre_(Aix-en-Provence)</t>
+          <t>Cimetière_Saint-Pierre_(Aix-en-Provence)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,7 +572,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Marcel Arnaud (1877-1956),  peintre provençal
 Abbé Henri Bremond (1865-1933), prêtre, académicien, auteur de l'Histoire littéraire du sentiment religieux
@@ -596,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Pierre_(Aix-en-Provence)</t>
+          <t>Cimetière_Saint-Pierre_(Aix-en-Provence)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -614,7 +630,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Description du cimetière Saint-Pierre</t>
         </is>
